--- a/Lab4/Docs/Data/q6_d.xlsx
+++ b/Lab4/Docs/Data/q6_d.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiva\Documents\GitHub\ME552\Lab4\Docs\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,6 +157,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -200,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,15 +455,15 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
